--- a/biology/Botanique/Calystegia_silvatica/Calystegia_silvatica.xlsx
+++ b/biology/Botanique/Calystegia_silvatica/Calystegia_silvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Calystegia silvatica
 Le liseron des bois, Calystegia silvatica, est une plante herbacée de la famille des Convolvulacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liseron des bois ressemble assez au liseron des haies, mais les fleurs sont plus grandes et les feuilles présentent un aspect gaufré.
 C'est une plante introduite en Europe, notamment en France, en Grande-Bretagne à titre ornemental.
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
